--- a/3. Database Design.xlsx
+++ b/3. Database Design.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Nhat\Desktop\JAVA16\3. Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E867C-BAB9-4117-8C85-F660102364BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5BA35-65F9-4AA7-B1F1-584F297B8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="Mô hình logic" sheetId="4" r:id="rId2"/>
     <sheet name="Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="Mô hình quan hệ - CSDL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="261">
   <si>
     <t>DonHang</t>
   </si>
@@ -207,13 +219,616 @@
   </si>
   <si>
     <t>HinhThucLamViec</t>
+  </si>
+  <si>
+    <t>3. Mô hình quan hệ</t>
+  </si>
+  <si>
+    <t>Quan hệ 1 - n --&gt; tạo khoá ngoại ở bảng N để liên kết, ràng buộc với bảng 1</t>
+  </si>
+  <si>
+    <t>Quan hệ 1 nhiều --&gt; Bỏ 1 vào nhiều --&gt; Lấy column khoá chính ở bảng 1 bỏ vào thành column mới (column khoá ngoại) bên bảng n</t>
+  </si>
+  <si>
+    <t>Khoá ngoại:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     + Tên column khoá ngoại không cần trùng với Tên khoá chính ở bảng cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     + KDL và miền giá trị của FK phải trùng PK bảng cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + Giá trị của FK có thể trùng nhau</t>
+  </si>
+  <si>
+    <t>FK: foreign key</t>
+  </si>
+  <si>
+    <t>PK: primary key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Quan hệ n-n --&gt; tạo bảng mới (liên kết) được tạo ra từ 2 bảng n-n</t>
+  </si>
+  <si>
+    <t>Bảng mới gồm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     + Gồm 2 thuộc tính(là khoá ngoại liên kết đến từng(2) bảng n-n)  và các thuộc tính khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + Khoá chính là 2 columns khoá ngoại liên kết đến bảng n-n</t>
+  </si>
+  <si>
+    <t>Quan hệ 1-1 --&gt; Tạo khoá ngoại ở 1 bảng bất kỳ tuỳ thuộc vào nghiệp vụ bài toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --&gt; Tạo ràng buộc là UNIQUE(duy nhất) cho thuộc tính khoá ngoại để đảm bảo đúng dữ liệu</t>
+  </si>
+  <si>
+    <t>A. Tập thực thể --&gt; Quan hệ (Bảng)</t>
+  </si>
+  <si>
+    <t>B. Thuộc tính --&gt; Thuộc tính + Miền giá trị</t>
+  </si>
+  <si>
+    <t>C. Khoá --&gt; Khoá chính</t>
+  </si>
+  <si>
+    <t>D. Mối quan hệ: 1-1 1-n n-n --&gt; Khoá ngoại</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt; Bảng thường sẽ có khoá chính(duy nhất) nhưng cũng không cần có </t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>1-n</t>
+  </si>
+  <si>
+    <t>LH01</t>
+  </si>
+  <si>
+    <t>LH02</t>
+  </si>
+  <si>
+    <t>LH03</t>
+  </si>
+  <si>
+    <t>LH04</t>
+  </si>
+  <si>
+    <t>LH05</t>
+  </si>
+  <si>
+    <t>LH06</t>
+  </si>
+  <si>
+    <t>LH07</t>
+  </si>
+  <si>
+    <t>LH08</t>
+  </si>
+  <si>
+    <t>LH09</t>
+  </si>
+  <si>
+    <t>LH10</t>
+  </si>
+  <si>
+    <t>Hang 1</t>
+  </si>
+  <si>
+    <t>Hang 2</t>
+  </si>
+  <si>
+    <t>Hang 3</t>
+  </si>
+  <si>
+    <t>Hang 4</t>
+  </si>
+  <si>
+    <t>Hang 5</t>
+  </si>
+  <si>
+    <t>Hang 6</t>
+  </si>
+  <si>
+    <t>Hang 7</t>
+  </si>
+  <si>
+    <t>Hang 8</t>
+  </si>
+  <si>
+    <t>Hang 9</t>
+  </si>
+  <si>
+    <t>Hang 10</t>
+  </si>
+  <si>
+    <t>Thong tin 1</t>
+  </si>
+  <si>
+    <t>Thong tin 2</t>
+  </si>
+  <si>
+    <t>Thong tin 3</t>
+  </si>
+  <si>
+    <t>Thong tin 4</t>
+  </si>
+  <si>
+    <t>Thong tin 5</t>
+  </si>
+  <si>
+    <t>Thong tin 6</t>
+  </si>
+  <si>
+    <t>Thong tin 7</t>
+  </si>
+  <si>
+    <t>Thong tin 8</t>
+  </si>
+  <si>
+    <t>Thong tin 9</t>
+  </si>
+  <si>
+    <t>Thong tin 10</t>
+  </si>
+  <si>
+    <t>MH01</t>
+  </si>
+  <si>
+    <t>MH02</t>
+  </si>
+  <si>
+    <t>MH03</t>
+  </si>
+  <si>
+    <t>MH04</t>
+  </si>
+  <si>
+    <t>MH05</t>
+  </si>
+  <si>
+    <t>MH06</t>
+  </si>
+  <si>
+    <t>MH07</t>
+  </si>
+  <si>
+    <t>MH08</t>
+  </si>
+  <si>
+    <t>MH09</t>
+  </si>
+  <si>
+    <t>MH10</t>
+  </si>
+  <si>
+    <t>Mat hang 1</t>
+  </si>
+  <si>
+    <t>Mat hang 2</t>
+  </si>
+  <si>
+    <t>Mat hang 3</t>
+  </si>
+  <si>
+    <t>Mat hang 4</t>
+  </si>
+  <si>
+    <t>Mat hang 5</t>
+  </si>
+  <si>
+    <t>Mat hang 6</t>
+  </si>
+  <si>
+    <t>Mat hang 7</t>
+  </si>
+  <si>
+    <t>Mat hang 8</t>
+  </si>
+  <si>
+    <t>Mat hang 9</t>
+  </si>
+  <si>
+    <t>Mat hang 10</t>
+  </si>
+  <si>
+    <t>n-n</t>
+  </si>
+  <si>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>HD02</t>
+  </si>
+  <si>
+    <t>HD03</t>
+  </si>
+  <si>
+    <t>HD04</t>
+  </si>
+  <si>
+    <t>HD05</t>
+  </si>
+  <si>
+    <t>HD06</t>
+  </si>
+  <si>
+    <t>HD07</t>
+  </si>
+  <si>
+    <t>HD08</t>
+  </si>
+  <si>
+    <t>HD09</t>
+  </si>
+  <si>
+    <t>HD10</t>
+  </si>
+  <si>
+    <t>DH02</t>
+  </si>
+  <si>
+    <t>DH01</t>
+  </si>
+  <si>
+    <t>DH03</t>
+  </si>
+  <si>
+    <t>DH04</t>
+  </si>
+  <si>
+    <t>DH05</t>
+  </si>
+  <si>
+    <t>DH06</t>
+  </si>
+  <si>
+    <t>DH07</t>
+  </si>
+  <si>
+    <t>DH08</t>
+  </si>
+  <si>
+    <t>DH09</t>
+  </si>
+  <si>
+    <t>DH10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>KH A</t>
+  </si>
+  <si>
+    <t>KH B</t>
+  </si>
+  <si>
+    <t>KH C</t>
+  </si>
+  <si>
+    <t>KH D</t>
+  </si>
+  <si>
+    <t>KH E</t>
+  </si>
+  <si>
+    <t>KH02</t>
+  </si>
+  <si>
+    <t>KH01</t>
+  </si>
+  <si>
+    <t>KH03</t>
+  </si>
+  <si>
+    <t>KH04</t>
+  </si>
+  <si>
+    <t>KH05</t>
+  </si>
+  <si>
+    <t>KH06</t>
+  </si>
+  <si>
+    <t>KH07</t>
+  </si>
+  <si>
+    <t>KH08</t>
+  </si>
+  <si>
+    <t>KH09</t>
+  </si>
+  <si>
+    <t>KH10</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>0123456</t>
+  </si>
+  <si>
+    <t>0123457</t>
+  </si>
+  <si>
+    <t>0123458</t>
+  </si>
+  <si>
+    <t>0123459</t>
+  </si>
+  <si>
+    <t>0123460</t>
+  </si>
+  <si>
+    <t>0123461</t>
+  </si>
+  <si>
+    <t>0123462</t>
+  </si>
+  <si>
+    <t>0123463</t>
+  </si>
+  <si>
+    <t>0123464</t>
+  </si>
+  <si>
+    <t>0123465</t>
+  </si>
+  <si>
+    <t>TTDH01</t>
+  </si>
+  <si>
+    <t>TTDH02</t>
+  </si>
+  <si>
+    <t>TTDH03</t>
+  </si>
+  <si>
+    <t>TTDH04</t>
+  </si>
+  <si>
+    <t>TTDH05</t>
+  </si>
+  <si>
+    <t>TTDH06</t>
+  </si>
+  <si>
+    <t>TTDH07</t>
+  </si>
+  <si>
+    <t>TTDH08</t>
+  </si>
+  <si>
+    <t>TTDH09</t>
+  </si>
+  <si>
+    <t>TTDH10</t>
+  </si>
+  <si>
+    <t>ChiTietTTDH</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>NV02</t>
+  </si>
+  <si>
+    <t>NV03</t>
+  </si>
+  <si>
+    <t>NV04</t>
+  </si>
+  <si>
+    <t>NV05</t>
+  </si>
+  <si>
+    <t>NV06</t>
+  </si>
+  <si>
+    <t>NV07</t>
+  </si>
+  <si>
+    <t>NV08</t>
+  </si>
+  <si>
+    <t>NV09</t>
+  </si>
+  <si>
+    <t>NV10</t>
+  </si>
+  <si>
+    <t>Le A</t>
+  </si>
+  <si>
+    <t>Dao B</t>
+  </si>
+  <si>
+    <t>Thi C</t>
+  </si>
+  <si>
+    <t>Nguyen A</t>
+  </si>
+  <si>
+    <t>Le C</t>
+  </si>
+  <si>
+    <t>Tran E</t>
+  </si>
+  <si>
+    <t>Duy C</t>
+  </si>
+  <si>
+    <t>Nam A</t>
+  </si>
+  <si>
+    <t>Thai D</t>
+  </si>
+  <si>
+    <t>Duy D</t>
+  </si>
+  <si>
+    <t>Doc Mieu</t>
+  </si>
+  <si>
+    <t>Con Tien</t>
+  </si>
+  <si>
+    <t>Ha Thu</t>
+  </si>
+  <si>
+    <t>Con Co</t>
+  </si>
+  <si>
+    <t>Ha Hoa</t>
+  </si>
+  <si>
+    <t>Trung Vuong</t>
+  </si>
+  <si>
+    <t>Ham Nghi</t>
+  </si>
+  <si>
+    <t>Khue Trung</t>
+  </si>
+  <si>
+    <t>Cam Le</t>
+  </si>
+  <si>
+    <t>Hoa Vang</t>
+  </si>
+  <si>
+    <t>Lien Chieu</t>
+  </si>
+  <si>
+    <t>Ngu Hanh Son</t>
+  </si>
+  <si>
+    <t>ThongTinCTTTDH</t>
+  </si>
+  <si>
+    <t>NSX01</t>
+  </si>
+  <si>
+    <t>NSX02</t>
+  </si>
+  <si>
+    <t>NSX03</t>
+  </si>
+  <si>
+    <t>NSX04</t>
+  </si>
+  <si>
+    <t>NSX05</t>
+  </si>
+  <si>
+    <t>NSX06</t>
+  </si>
+  <si>
+    <t>NSX07</t>
+  </si>
+  <si>
+    <t>NSX08</t>
+  </si>
+  <si>
+    <t>NSX09</t>
+  </si>
+  <si>
+    <t>NSX10</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>FGH</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>HIK</t>
+  </si>
+  <si>
+    <t>IKL</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>DaNang</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HaiPhong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +844,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +881,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,16 +941,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A18"/>
@@ -592,7 +1279,7 @@
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -624,7 +1311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -649,21 +1336,21 @@
       <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -681,18 +1368,18 @@
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -711,14 +1398,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -735,18 +1422,18 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -766,7 +1453,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -774,16 +1461,16 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -799,10 +1486,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
@@ -814,9 +1501,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -832,7 +1518,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -846,7 +1532,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -860,21 +1546,21 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -886,7 +1572,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -898,7 +1584,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -935,25 +1621,25 @@
       <c r="J18" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -963,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0709A8C7-DE2F-4E9B-84A9-5E114990B93A}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1668,7 @@
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1014,7 +1700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1039,21 +1725,21 @@
       <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1071,18 +1757,18 @@
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1101,14 +1787,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1125,18 +1811,18 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1156,7 +1842,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1164,16 +1850,16 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -1189,10 +1875,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
@@ -1204,9 +1890,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1222,7 +1907,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1236,7 +1921,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1250,21 +1935,21 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1276,7 +1961,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1288,7 +1973,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1325,39 +2010,39 @@
       <c r="J18" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD017A3-A3BD-49E2-968D-2894B4A831C8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H19"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +2065,2901 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H41" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E80629-F319-450B-9745-0CFEF1D9DD41}">
+  <dimension ref="A1:T74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="Q21" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="L34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H38" s="1">
+        <v>50</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M38" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="H39" s="1">
+        <v>90</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M39" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H40" s="1">
+        <v>35</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="H41" s="1">
+        <v>24</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M41" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H42" s="1">
+        <v>16</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M42" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R42" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M43" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R43" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H44" s="1">
+        <v>50</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M44" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R44" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H45" s="1">
+        <v>60</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M45" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R45" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R46" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="O62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="L34:O34"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3. Database Design.xlsx
+++ b/3. Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Nhat\Desktop\JAVA16\3. Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5BA35-65F9-4AA7-B1F1-584F297B8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C754B39-3166-44F3-9F1D-BA7DEE11718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Mô hình logic" sheetId="4" r:id="rId2"/>
     <sheet name="Mô hình quan hệ" sheetId="3" r:id="rId3"/>
     <sheet name="Mô hình quan hệ - CSDL" sheetId="5" r:id="rId4"/>
+    <sheet name="RD - Xử lý" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="276">
   <si>
     <t>DonHang</t>
   </si>
@@ -822,13 +823,58 @@
   </si>
   <si>
     <t>HaiPhong</t>
+  </si>
+  <si>
+    <t>HinhThucLamViec (boolean)</t>
+  </si>
+  <si>
+    <t>ThoiGianBatDau(Datetime)</t>
+  </si>
+  <si>
+    <t>MaKC (Varchar)</t>
+  </si>
+  <si>
+    <t>ChiTietMatHang</t>
+  </si>
+  <si>
+    <t>MatHang-KichCo</t>
+  </si>
+  <si>
+    <t>ChiTietDonHang</t>
+  </si>
+  <si>
+    <t>ThoiGianDatHang</t>
+  </si>
+  <si>
+    <t>MaLoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>LoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>MaLHTT</t>
+  </si>
+  <si>
+    <t>MaDH (UNIQUE)</t>
+  </si>
+  <si>
+    <t>SoTienThanhToan</t>
+  </si>
+  <si>
+    <t>NgayTao</t>
+  </si>
+  <si>
+    <t>PK - FK</t>
+  </si>
+  <si>
+    <t>ThongTinPhanKhoiHang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +912,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -941,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -959,26 +1028,42 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2571,2395 +2656,2598 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E80629-F319-450B-9745-0CFEF1D9DD41}">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="N2" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N3" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
+      <c r="C9" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="N22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="U22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="M23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="Q21" s="9" t="s">
+      <c r="U23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="P35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+    </row>
+    <row r="36" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="O36" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="13" t="s">
+      <c r="T36" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="O37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="D38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P38" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="L34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M37" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="1">
-        <v>15.02</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="H38" s="1">
-        <v>50</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M38" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D39" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P39" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <v>50</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P40" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="1">
         <v>19.02</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G41" s="1">
         <v>15.02</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
         <v>90</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="K41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="N41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P41" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P42" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1">
+        <v>24</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P43" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U43" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M39" s="1">
+      <c r="D44" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P44" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P45" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <v>50</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P46" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <v>60</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="M49" s="11"/>
+      <c r="Q49" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+    </row>
+    <row r="50" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="M51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="G52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U52" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="G53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U53" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="G54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U54" s="1">
         <v>15.02</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R39" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="V54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="G55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="U55" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="G56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U56" s="1">
         <v>20.02</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="V56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="G57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U57" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="G58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U58" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="1">
+        <v>18.02</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U59" s="1">
         <v>19.02</v>
       </c>
-      <c r="H40" s="1">
-        <v>35</v>
-      </c>
-      <c r="I40" s="16" t="s">
+      <c r="V59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="G60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U60" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1">
+        <v>19.02</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="G61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U61" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="1">
+        <v>17.02</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="G62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="M63" s="11"/>
+      <c r="S63" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+    </row>
+    <row r="64" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="N64" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M40" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="O69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="1">
-        <v>20.02</v>
-      </c>
-      <c r="H41" s="1">
-        <v>24</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="O70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M41" s="1">
-        <v>20.02</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="L71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="H42" s="1">
-        <v>16</v>
-      </c>
-      <c r="I42" s="16" t="s">
+      <c r="O71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M42" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="L72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="16" t="s">
+      <c r="O72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M43" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="R43" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="L73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="H44" s="1">
-        <v>50</v>
-      </c>
-      <c r="I44" s="16" t="s">
+      <c r="O73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M44" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="L74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="H45" s="1">
-        <v>60</v>
-      </c>
-      <c r="I45" s="16" t="s">
+      <c r="O74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M45" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
+      <c r="L75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="1">
-        <v>20.02</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16" t="s">
+      <c r="O75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M46" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R46" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="M48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="1">
-        <v>15.02</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>15.02</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="1">
-        <v>20.02</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>20.02</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>19.02</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>17.02</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="O62" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P64" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="L34:O34"/>
+  <mergeCells count="5">
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="P35:S35"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8CF0F0-D88E-457D-90EE-BC2DE26E72AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>